--- a/design_draft.xlsx
+++ b/design_draft.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6169CA06-A748-4EDD-B784-E370D03CAEBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,11 +204,19 @@
     <t>s511</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>block_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chess_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -514,16 +521,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -638,18 +639,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,49 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -789,6 +736,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1076,15 +1083,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BN55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BL15" sqref="BL15"/>
+      <selection activeCell="BL5" sqref="BL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="33" width="2.75" customWidth="1"/>
     <col min="35" max="35" width="4.75" customWidth="1"/>
     <col min="36" max="62" width="2.75" customWidth="1"/>
     <col min="64" max="64" width="6.625" style="1" customWidth="1"/>
@@ -1204,26 +1212,62 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="74"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="98">
+        <v>4</v>
+      </c>
+      <c r="J2" s="99">
+        <v>9</v>
+      </c>
+      <c r="K2" s="100">
+        <v>9</v>
+      </c>
+      <c r="L2" s="100">
+        <v>9</v>
+      </c>
+      <c r="M2" s="100">
+        <v>9</v>
+      </c>
+      <c r="N2" s="100">
+        <v>9</v>
+      </c>
+      <c r="O2" s="99">
+        <v>13</v>
+      </c>
+      <c r="P2" s="101">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="102">
+        <v>13</v>
+      </c>
+      <c r="R2" s="101">
+        <v>12</v>
+      </c>
+      <c r="S2" s="101">
+        <v>12</v>
+      </c>
+      <c r="T2" s="101">
+        <v>12</v>
+      </c>
+      <c r="U2" s="103">
+        <v>12</v>
+      </c>
+      <c r="V2" s="98">
+        <v>8</v>
+      </c>
+      <c r="W2" s="101">
+        <v>18</v>
+      </c>
+      <c r="X2" s="101">
+        <v>18</v>
+      </c>
+      <c r="Y2" s="104">
+        <v>14</v>
+      </c>
+      <c r="Z2" s="102">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="68"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
@@ -1250,91 +1294,127 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="86"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="82"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
-      <c r="Z3" s="82"/>
-      <c r="AA3" s="74"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="105">
+        <v>4</v>
+      </c>
+      <c r="J3" s="106">
+        <v>6</v>
+      </c>
+      <c r="K3" s="106">
+        <v>6</v>
+      </c>
+      <c r="L3" s="103">
+        <v>6</v>
+      </c>
+      <c r="M3" s="98">
+        <v>20</v>
+      </c>
+      <c r="N3" s="107">
+        <v>0</v>
+      </c>
+      <c r="O3" s="98">
+        <v>10</v>
+      </c>
+      <c r="P3" s="108">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="109">
+        <v>13</v>
+      </c>
+      <c r="R3" s="104">
+        <v>19</v>
+      </c>
+      <c r="S3" s="100">
+        <v>19</v>
+      </c>
+      <c r="T3" s="110">
+        <v>12</v>
+      </c>
+      <c r="U3" s="104">
+        <v>8</v>
+      </c>
+      <c r="V3" s="106">
+        <v>8</v>
+      </c>
+      <c r="W3" s="105">
+        <v>18</v>
+      </c>
+      <c r="X3" s="101">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="101">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="105">
+        <v>14</v>
+      </c>
+      <c r="AA3" s="68"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
-      <c r="AJ3" s="30">
+      <c r="AJ3" s="28">
         <v>7</v>
       </c>
-      <c r="AK3" s="31">
+      <c r="AK3" s="29">
         <v>7</v>
       </c>
-      <c r="AL3" s="32">
+      <c r="AL3" s="30">
         <v>11</v>
       </c>
-      <c r="AM3" s="31">
+      <c r="AM3" s="29">
         <v>11</v>
       </c>
-      <c r="AN3" s="32">
+      <c r="AN3" s="30">
         <v>16</v>
       </c>
-      <c r="AO3" s="32">
+      <c r="AO3" s="30">
         <v>16</v>
       </c>
-      <c r="AP3" s="31">
+      <c r="AP3" s="29">
         <v>16</v>
       </c>
-      <c r="AQ3" s="33">
+      <c r="AQ3" s="31">
         <v>2</v>
       </c>
-      <c r="AR3" s="32">
+      <c r="AR3" s="30">
         <v>17</v>
       </c>
-      <c r="AS3" s="31">
+      <c r="AS3" s="29">
         <v>17</v>
       </c>
-      <c r="AT3" s="32">
+      <c r="AT3" s="30">
         <v>10</v>
       </c>
-      <c r="AU3" s="31">
+      <c r="AU3" s="29">
         <v>10</v>
       </c>
-      <c r="AV3" s="32">
+      <c r="AV3" s="30">
         <v>3</v>
       </c>
-      <c r="AW3" s="34">
+      <c r="AW3" s="32">
         <v>3</v>
       </c>
-      <c r="AX3" s="35">
+      <c r="AX3" s="33">
         <v>1</v>
       </c>
-      <c r="AY3" s="34">
+      <c r="AY3" s="32">
         <v>1</v>
       </c>
-      <c r="AZ3" s="33">
+      <c r="AZ3" s="31">
         <v>15</v>
       </c>
-      <c r="BA3" s="15">
+      <c r="BA3" s="13">
         <v>-1</v>
       </c>
       <c r="BL3" s="2"/>
       <c r="BM3" s="1">
         <v>0</v>
       </c>
-      <c r="BN3" s="69" t="s">
+      <c r="BN3" s="63" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1348,97 +1428,133 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="74"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="105">
+        <v>4</v>
+      </c>
+      <c r="J4" s="98">
+        <v>15</v>
+      </c>
+      <c r="K4" s="110">
+        <v>6</v>
+      </c>
+      <c r="L4" s="99">
+        <v>20</v>
+      </c>
+      <c r="M4" s="106">
+        <v>20</v>
+      </c>
+      <c r="N4" s="103">
+        <v>20</v>
+      </c>
+      <c r="O4" s="105">
+        <v>10</v>
+      </c>
+      <c r="P4" s="98">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="99">
+        <v>19</v>
+      </c>
+      <c r="R4" s="111">
+        <v>19</v>
+      </c>
+      <c r="S4" s="98">
+        <v>2</v>
+      </c>
+      <c r="T4" s="98">
+        <v>16</v>
+      </c>
+      <c r="U4" s="106">
+        <v>8</v>
+      </c>
+      <c r="V4" s="99">
+        <v>18</v>
+      </c>
+      <c r="W4" s="109">
+        <v>18</v>
+      </c>
+      <c r="X4" s="106">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="99">
+        <v>14</v>
+      </c>
+      <c r="Z4" s="111">
+        <v>14</v>
+      </c>
+      <c r="AA4" s="68"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
-      <c r="AJ4" s="37">
+      <c r="AJ4" s="35">
         <v>7</v>
       </c>
-      <c r="AK4" s="38">
+      <c r="AK4" s="36">
         <v>7</v>
       </c>
-      <c r="AL4" s="33">
+      <c r="AL4" s="31">
         <v>5</v>
       </c>
-      <c r="AM4" s="39">
+      <c r="AM4" s="37">
         <v>11</v>
       </c>
-      <c r="AN4" s="40">
+      <c r="AN4" s="38">
         <v>11</v>
       </c>
-      <c r="AO4" s="34">
+      <c r="AO4" s="32">
         <v>11</v>
       </c>
-      <c r="AP4" s="38">
+      <c r="AP4" s="36">
         <v>16</v>
       </c>
-      <c r="AQ4" s="41">
+      <c r="AQ4" s="39">
         <v>2</v>
       </c>
-      <c r="AR4" s="33">
+      <c r="AR4" s="31">
         <v>19</v>
       </c>
-      <c r="AS4" s="36">
+      <c r="AS4" s="34">
         <v>17</v>
       </c>
-      <c r="AT4" s="31">
+      <c r="AT4" s="29">
         <v>17</v>
       </c>
-      <c r="AU4" s="38">
+      <c r="AU4" s="36">
         <v>10</v>
       </c>
-      <c r="AV4" s="41">
+      <c r="AV4" s="39">
         <v>3</v>
       </c>
-      <c r="AW4" s="33">
+      <c r="AW4" s="31">
         <v>20</v>
       </c>
-      <c r="AX4" s="42">
+      <c r="AX4" s="40">
         <v>15</v>
       </c>
-      <c r="AY4" s="36">
+      <c r="AY4" s="34">
         <v>15</v>
       </c>
-      <c r="AZ4" s="36">
+      <c r="AZ4" s="34">
         <v>15</v>
       </c>
-      <c r="BA4" s="33">
+      <c r="BA4" s="31">
         <v>4</v>
       </c>
-      <c r="BD4" s="10" t="s">
+      <c r="BD4" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="BE4" s="10"/>
-      <c r="BF4" s="10"/>
-      <c r="BG4" s="10"/>
-      <c r="BL4" s="70"/>
+      <c r="BE4" s="114"/>
+      <c r="BF4" s="114"/>
+      <c r="BG4" s="114"/>
+      <c r="BL4" s="64"/>
       <c r="BM4" s="1">
         <v>1</v>
       </c>
-      <c r="BN4" s="69" t="s">
+      <c r="BN4" s="63" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1452,97 +1568,133 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="81"/>
-      <c r="AA5" s="74"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="110">
+        <v>4</v>
+      </c>
+      <c r="J5" s="106">
+        <v>15</v>
+      </c>
+      <c r="K5" s="100">
+        <v>15</v>
+      </c>
+      <c r="L5" s="103">
+        <v>15</v>
+      </c>
+      <c r="M5" s="110">
+        <v>20</v>
+      </c>
+      <c r="N5" s="102">
+        <v>3</v>
+      </c>
+      <c r="O5" s="105">
+        <v>10</v>
+      </c>
+      <c r="P5" s="108">
+        <v>17</v>
+      </c>
+      <c r="Q5" s="102">
+        <v>17</v>
+      </c>
+      <c r="R5" s="110">
+        <v>19</v>
+      </c>
+      <c r="S5" s="105">
+        <v>2</v>
+      </c>
+      <c r="T5" s="105">
+        <v>16</v>
+      </c>
+      <c r="U5" s="99">
+        <v>11</v>
+      </c>
+      <c r="V5" s="100">
+        <v>11</v>
+      </c>
+      <c r="W5" s="101">
+        <v>11</v>
+      </c>
+      <c r="X5" s="108">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="104">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="102">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="68"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
-      <c r="AJ5" s="30">
+      <c r="AJ5" s="28">
         <v>14</v>
       </c>
-      <c r="AK5" s="34">
+      <c r="AK5" s="32">
         <v>14</v>
       </c>
-      <c r="AL5" s="38">
+      <c r="AL5" s="36">
         <v>5</v>
       </c>
-      <c r="AM5" s="36">
+      <c r="AM5" s="34">
         <v>18</v>
       </c>
-      <c r="AN5" s="34">
+      <c r="AN5" s="32">
         <v>18</v>
       </c>
-      <c r="AO5" s="36">
+      <c r="AO5" s="34">
         <v>8</v>
       </c>
-      <c r="AP5" s="43">
+      <c r="AP5" s="41">
         <v>16</v>
       </c>
-      <c r="AQ5" s="43">
+      <c r="AQ5" s="41">
         <v>2</v>
       </c>
-      <c r="AR5" s="36">
+      <c r="AR5" s="34">
         <v>19</v>
       </c>
-      <c r="AS5" s="34">
+      <c r="AS5" s="32">
         <v>19</v>
       </c>
-      <c r="AT5" s="43">
+      <c r="AT5" s="41">
         <v>17</v>
       </c>
-      <c r="AU5" s="38">
+      <c r="AU5" s="36">
         <v>10</v>
       </c>
-      <c r="AV5" s="30">
+      <c r="AV5" s="28">
         <v>20</v>
       </c>
-      <c r="AW5" s="36">
+      <c r="AW5" s="34">
         <v>20</v>
       </c>
-      <c r="AX5" s="34">
+      <c r="AX5" s="32">
         <v>20</v>
       </c>
-      <c r="AY5" s="33">
+      <c r="AY5" s="31">
         <v>6</v>
       </c>
-      <c r="AZ5" s="43">
+      <c r="AZ5" s="41">
         <v>15</v>
       </c>
-      <c r="BA5" s="41">
+      <c r="BA5" s="39">
         <v>4</v>
       </c>
-      <c r="BD5" s="11" t="s">
+      <c r="BD5" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="BE5" s="11"/>
-      <c r="BF5" s="11"/>
-      <c r="BG5" s="11"/>
+      <c r="BE5" s="115"/>
+      <c r="BF5" s="115"/>
+      <c r="BG5" s="115"/>
       <c r="BL5" s="4"/>
       <c r="BM5" s="1">
         <v>2</v>
       </c>
-      <c r="BN5" s="69" t="s">
+      <c r="BN5" s="63" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1556,97 +1708,133 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="74"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="13">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="112">
+        <v>15</v>
+      </c>
+      <c r="K6" s="108">
+        <v>1</v>
+      </c>
+      <c r="L6" s="103">
+        <v>1</v>
+      </c>
+      <c r="M6" s="112">
+        <v>3</v>
+      </c>
+      <c r="N6" s="109">
+        <v>3</v>
+      </c>
+      <c r="O6" s="112">
+        <v>10</v>
+      </c>
+      <c r="P6" s="103">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="112">
+        <v>17</v>
+      </c>
+      <c r="R6" s="103">
+        <v>17</v>
+      </c>
+      <c r="S6" s="110">
+        <v>2</v>
+      </c>
+      <c r="T6" s="112">
+        <v>16</v>
+      </c>
+      <c r="U6" s="112">
+        <v>16</v>
+      </c>
+      <c r="V6" s="100">
+        <v>16</v>
+      </c>
+      <c r="W6" s="108">
+        <v>11</v>
+      </c>
+      <c r="X6" s="103">
+        <v>11</v>
+      </c>
+      <c r="Y6" s="112">
+        <v>7</v>
+      </c>
+      <c r="Z6" s="109">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="68"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
-      <c r="AJ6" s="41">
+      <c r="AJ6" s="39">
         <v>14</v>
       </c>
-      <c r="AK6" s="36">
+      <c r="AK6" s="34">
         <v>5</v>
       </c>
-      <c r="AL6" s="44">
+      <c r="AL6" s="42">
         <v>5</v>
       </c>
-      <c r="AM6" s="38">
+      <c r="AM6" s="36">
         <v>18</v>
       </c>
-      <c r="AN6" s="36">
+      <c r="AN6" s="34">
         <v>8</v>
       </c>
-      <c r="AO6" s="44">
+      <c r="AO6" s="42">
         <v>8</v>
       </c>
-      <c r="AP6" s="33">
+      <c r="AP6" s="31">
         <v>12</v>
       </c>
-      <c r="AQ6" s="36">
+      <c r="AQ6" s="34">
         <v>19</v>
       </c>
-      <c r="AR6" s="44">
+      <c r="AR6" s="42">
         <v>19</v>
       </c>
-      <c r="AS6" s="36">
+      <c r="AS6" s="34">
         <v>13</v>
       </c>
-      <c r="AT6" s="31">
+      <c r="AT6" s="29">
         <v>13</v>
       </c>
-      <c r="AU6" s="38">
+      <c r="AU6" s="36">
         <v>10</v>
       </c>
       <c r="AV6" s="5">
         <v>0</v>
       </c>
-      <c r="AW6" s="43">
+      <c r="AW6" s="41">
         <v>20</v>
       </c>
-      <c r="AX6" s="36">
+      <c r="AX6" s="34">
         <v>6</v>
       </c>
-      <c r="AY6" s="36">
+      <c r="AY6" s="34">
         <v>6</v>
       </c>
-      <c r="AZ6" s="36">
+      <c r="AZ6" s="34">
         <v>6</v>
       </c>
-      <c r="BA6" s="41">
+      <c r="BA6" s="39">
         <v>4</v>
       </c>
-      <c r="BD6" s="12" t="s">
+      <c r="BD6" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="BE6" s="12"/>
-      <c r="BF6" s="12"/>
-      <c r="BG6" s="12"/>
-      <c r="BL6" s="65"/>
+      <c r="BE6" s="116"/>
+      <c r="BF6" s="116"/>
+      <c r="BG6" s="116"/>
+      <c r="BL6" s="59"/>
       <c r="BM6" s="1">
         <v>3</v>
       </c>
-      <c r="BN6" s="69" t="s">
+      <c r="BN6" s="63" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1661,24 +1849,24 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
@@ -1686,71 +1874,71 @@
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
-      <c r="AJ7" s="42">
+      <c r="AJ7" s="40">
         <v>14</v>
       </c>
-      <c r="AK7" s="34">
+      <c r="AK7" s="32">
         <v>14</v>
       </c>
-      <c r="AL7" s="39">
+      <c r="AL7" s="37">
         <v>18</v>
       </c>
-      <c r="AM7" s="44">
+      <c r="AM7" s="42">
         <v>18</v>
       </c>
-      <c r="AN7" s="43">
+      <c r="AN7" s="41">
         <v>8</v>
       </c>
-      <c r="AO7" s="39">
+      <c r="AO7" s="37">
         <v>12</v>
       </c>
-      <c r="AP7" s="39">
+      <c r="AP7" s="37">
         <v>12</v>
       </c>
-      <c r="AQ7" s="40">
+      <c r="AQ7" s="38">
         <v>12</v>
       </c>
-      <c r="AR7" s="34">
+      <c r="AR7" s="32">
         <v>12</v>
       </c>
-      <c r="AS7" s="39">
+      <c r="AS7" s="37">
         <v>13</v>
       </c>
-      <c r="AT7" s="39">
+      <c r="AT7" s="37">
         <v>13</v>
       </c>
-      <c r="AU7" s="34">
+      <c r="AU7" s="32">
         <v>13</v>
       </c>
-      <c r="AV7" s="40">
+      <c r="AV7" s="38">
         <v>9</v>
       </c>
-      <c r="AW7" s="40">
+      <c r="AW7" s="38">
         <v>9</v>
       </c>
-      <c r="AX7" s="40">
+      <c r="AX7" s="38">
         <v>9</v>
       </c>
-      <c r="AY7" s="40">
+      <c r="AY7" s="38">
         <v>9</v>
       </c>
-      <c r="AZ7" s="34">
+      <c r="AZ7" s="32">
         <v>9</v>
       </c>
-      <c r="BA7" s="43">
+      <c r="BA7" s="41">
         <v>4</v>
       </c>
-      <c r="BD7" s="13" t="s">
+      <c r="BD7" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="BE7" s="13"/>
-      <c r="BF7" s="13"/>
-      <c r="BG7" s="13"/>
+      <c r="BE7" s="117"/>
+      <c r="BF7" s="117"/>
+      <c r="BG7" s="117"/>
       <c r="BL7" s="5"/>
       <c r="BM7" s="1">
         <v>4</v>
       </c>
-      <c r="BN7" s="69" t="s">
+      <c r="BN7" s="63" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1758,11 +1946,11 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
       <c r="G8" s="2"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1785,16 +1973,16 @@
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="2"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="BL8" s="66"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="66"/>
+      <c r="AG8" s="66"/>
+      <c r="BL8" s="60"/>
       <c r="BM8" s="1">
         <v>5</v>
       </c>
-      <c r="BN8" s="69" t="s">
+      <c r="BN8" s="63" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1802,12 +1990,22 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="74"/>
+      <c r="B9" s="73">
+        <v>14</v>
+      </c>
+      <c r="C9" s="72">
+        <v>14</v>
+      </c>
+      <c r="D9" s="72">
+        <v>14</v>
+      </c>
+      <c r="E9" s="73">
+        <v>7</v>
+      </c>
+      <c r="F9" s="76">
+        <v>7</v>
+      </c>
+      <c r="G9" s="68"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1828,24 +2026,34 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
-      <c r="AB9" s="71"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="35"/>
-      <c r="AE9" s="40"/>
-      <c r="AF9" s="40"/>
-      <c r="AG9" s="31"/>
+      <c r="AB9" s="65"/>
+      <c r="AC9" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AD9" s="33">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="38">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="38">
+        <v>4</v>
+      </c>
+      <c r="AG9" s="29">
+        <v>4</v>
+      </c>
       <c r="AI9" t="s">
         <v>6</v>
       </c>
       <c r="AJ9" t="s">
         <v>43</v>
       </c>
-      <c r="BE9" s="60"/>
+      <c r="BE9" s="58"/>
       <c r="BL9" s="6"/>
       <c r="BM9" s="1">
         <v>6</v>
       </c>
-      <c r="BN9" s="69" t="s">
+      <c r="BN9" s="63" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1853,12 +2061,22 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="74"/>
+      <c r="B10" s="70">
+        <v>14</v>
+      </c>
+      <c r="C10" s="73">
+        <v>5</v>
+      </c>
+      <c r="D10" s="75">
+        <v>14</v>
+      </c>
+      <c r="E10" s="71">
+        <v>7</v>
+      </c>
+      <c r="F10" s="77">
+        <v>7</v>
+      </c>
+      <c r="G10" s="68"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1879,51 +2097,61 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="38"/>
-      <c r="AG10" s="33"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="35">
+        <v>15</v>
+      </c>
+      <c r="AD10" s="34">
+        <v>15</v>
+      </c>
+      <c r="AE10" s="32">
+        <v>15</v>
+      </c>
+      <c r="AF10" s="36">
+        <v>6</v>
+      </c>
+      <c r="AG10" s="31">
+        <v>9</v>
+      </c>
       <c r="AJ10" s="5">
         <v>0</v>
       </c>
-      <c r="AV10" s="36">
+      <c r="AV10" s="34">
         <v>0</v>
       </c>
-      <c r="AW10" s="105"/>
-      <c r="AX10" s="32">
+      <c r="AW10" s="85"/>
+      <c r="AX10" s="30">
         <v>1</v>
       </c>
-      <c r="AY10" s="105"/>
-      <c r="AZ10" s="38">
+      <c r="AY10" s="85"/>
+      <c r="AZ10" s="36">
         <v>2</v>
       </c>
-      <c r="BA10" s="105"/>
-      <c r="BB10" s="36">
+      <c r="BA10" s="85"/>
+      <c r="BB10" s="34">
         <v>3</v>
       </c>
-      <c r="BC10" s="105"/>
-      <c r="BD10" s="37">
+      <c r="BC10" s="85"/>
+      <c r="BD10" s="35">
         <v>4</v>
       </c>
-      <c r="BE10" s="105"/>
-      <c r="BF10" s="30">
+      <c r="BE10" s="85"/>
+      <c r="BF10" s="28">
         <v>5</v>
       </c>
-      <c r="BG10" s="105"/>
-      <c r="BH10" s="37">
+      <c r="BG10" s="85"/>
+      <c r="BH10" s="35">
         <v>6</v>
       </c>
-      <c r="BI10" s="109"/>
-      <c r="BJ10" s="37">
+      <c r="BI10" s="89"/>
+      <c r="BJ10" s="35">
         <v>7</v>
       </c>
-      <c r="BL10" s="67"/>
+      <c r="BL10" s="61"/>
       <c r="BM10" s="1">
         <v>7</v>
       </c>
-      <c r="BN10" s="69" t="s">
+      <c r="BN10" s="63" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1931,12 +2159,22 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="74"/>
+      <c r="B11" s="73">
+        <v>18</v>
+      </c>
+      <c r="C11" s="71">
+        <v>5</v>
+      </c>
+      <c r="D11" s="80">
+        <v>5</v>
+      </c>
+      <c r="E11" s="81">
+        <v>5</v>
+      </c>
+      <c r="F11" s="76">
+        <v>11</v>
+      </c>
+      <c r="G11" s="68"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1957,32 +2195,42 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="38"/>
-      <c r="AG11" s="38"/>
-      <c r="AV11" s="105"/>
-      <c r="AW11" s="105"/>
-      <c r="AX11" s="105"/>
-      <c r="AY11" s="105"/>
-      <c r="AZ11" s="105"/>
-      <c r="BA11" s="105"/>
-      <c r="BB11" s="110"/>
-      <c r="BC11" s="105"/>
-      <c r="BD11" s="105"/>
-      <c r="BE11" s="105"/>
-      <c r="BF11" s="105"/>
-      <c r="BG11" s="105"/>
-      <c r="BH11" s="105"/>
-      <c r="BI11" s="105"/>
-      <c r="BJ11" s="110"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="31">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="36">
+        <v>15</v>
+      </c>
+      <c r="AE11" s="33">
+        <v>6</v>
+      </c>
+      <c r="AF11" s="36">
+        <v>6</v>
+      </c>
+      <c r="AG11" s="36">
+        <v>9</v>
+      </c>
+      <c r="AV11" s="85"/>
+      <c r="AW11" s="85"/>
+      <c r="AX11" s="85"/>
+      <c r="AY11" s="85"/>
+      <c r="AZ11" s="85"/>
+      <c r="BA11" s="85"/>
+      <c r="BB11" s="90"/>
+      <c r="BC11" s="85"/>
+      <c r="BD11" s="85"/>
+      <c r="BE11" s="85"/>
+      <c r="BF11" s="85"/>
+      <c r="BG11" s="85"/>
+      <c r="BH11" s="85"/>
+      <c r="BI11" s="85"/>
+      <c r="BJ11" s="90"/>
       <c r="BL11" s="7"/>
       <c r="BM11" s="1">
         <v>8</v>
       </c>
-      <c r="BN11" s="69" t="s">
+      <c r="BN11" s="63" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1990,12 +2238,22 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="74"/>
+      <c r="B12" s="71">
+        <v>18</v>
+      </c>
+      <c r="C12" s="78">
+        <v>18</v>
+      </c>
+      <c r="D12" s="69">
+        <v>18</v>
+      </c>
+      <c r="E12" s="73">
+        <v>11</v>
+      </c>
+      <c r="F12" s="77">
+        <v>11</v>
+      </c>
+      <c r="G12" s="68"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -2016,54 +2274,64 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="43"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="41">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="42">
+        <v>15</v>
+      </c>
+      <c r="AE12" s="29">
+        <v>20</v>
+      </c>
+      <c r="AF12" s="36">
+        <v>6</v>
+      </c>
+      <c r="AG12" s="36">
+        <v>9</v>
+      </c>
       <c r="AI12" t="s">
         <v>7</v>
       </c>
       <c r="AJ12" t="s">
         <v>42</v>
       </c>
-      <c r="AV12" s="32">
+      <c r="AV12" s="30">
         <v>8</v>
       </c>
-      <c r="AW12" s="109"/>
-      <c r="AX12" s="32">
+      <c r="AW12" s="89"/>
+      <c r="AX12" s="30">
         <v>9</v>
       </c>
-      <c r="AY12" s="105"/>
-      <c r="AZ12" s="36">
+      <c r="AY12" s="85"/>
+      <c r="AZ12" s="34">
         <v>10</v>
       </c>
-      <c r="BA12" s="109"/>
-      <c r="BB12" s="30">
+      <c r="BA12" s="89"/>
+      <c r="BB12" s="28">
         <v>11</v>
       </c>
-      <c r="BC12" s="109"/>
-      <c r="BD12" s="30">
+      <c r="BC12" s="89"/>
+      <c r="BD12" s="28">
         <v>12</v>
       </c>
-      <c r="BE12" s="105"/>
-      <c r="BF12" s="37">
+      <c r="BE12" s="85"/>
+      <c r="BF12" s="35">
         <v>13</v>
       </c>
-      <c r="BG12" s="109"/>
-      <c r="BH12" s="34">
+      <c r="BG12" s="89"/>
+      <c r="BH12" s="32">
         <v>14</v>
       </c>
-      <c r="BI12" s="109"/>
+      <c r="BI12" s="89"/>
       <c r="BJ12" s="5">
         <v>15</v>
       </c>
-      <c r="BL12" s="68"/>
+      <c r="BL12" s="62"/>
       <c r="BM12" s="1">
         <v>9</v>
       </c>
-      <c r="BN12" s="69" t="s">
+      <c r="BN12" s="63" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2071,12 +2339,22 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="74"/>
+      <c r="B13" s="70">
+        <v>8</v>
+      </c>
+      <c r="C13" s="76">
+        <v>8</v>
+      </c>
+      <c r="D13" s="69">
+        <v>18</v>
+      </c>
+      <c r="E13" s="70">
+        <v>11</v>
+      </c>
+      <c r="F13" s="82">
+        <v>16</v>
+      </c>
+      <c r="G13" s="68"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -2097,38 +2375,58 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="42"/>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="38"/>
-      <c r="AJ13" s="46">
+      <c r="AB13" s="65"/>
+      <c r="AC13" s="31">
+        <v>3</v>
+      </c>
+      <c r="AD13" s="40">
+        <v>20</v>
+      </c>
+      <c r="AE13" s="34">
+        <v>20</v>
+      </c>
+      <c r="AF13" s="32">
+        <v>20</v>
+      </c>
+      <c r="AG13" s="36">
+        <v>9</v>
+      </c>
+      <c r="AJ13" s="44">
         <v>1</v>
       </c>
-      <c r="AK13" s="48"/>
-      <c r="AL13" s="60"/>
-      <c r="AM13" s="60"/>
-      <c r="AS13" s="60"/>
-      <c r="AU13" s="60"/>
-      <c r="AX13" s="53"/>
-      <c r="AY13" s="60"/>
-      <c r="AZ13" s="53"/>
-      <c r="BC13" s="60"/>
-      <c r="BD13" s="53"/>
-      <c r="BE13" s="60"/>
-      <c r="BF13" s="53"/>
+      <c r="AK13" s="46"/>
+      <c r="AL13" s="58"/>
+      <c r="AM13" s="58"/>
+      <c r="AS13" s="58"/>
+      <c r="AU13" s="58"/>
+      <c r="AX13" s="51"/>
+      <c r="AY13" s="58"/>
+      <c r="AZ13" s="51"/>
+      <c r="BC13" s="58"/>
+      <c r="BD13" s="51"/>
+      <c r="BE13" s="58"/>
+      <c r="BF13" s="51"/>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="74"/>
+      <c r="B14" s="73">
+        <v>12</v>
+      </c>
+      <c r="C14" s="70">
+        <v>8</v>
+      </c>
+      <c r="D14" s="81">
+        <v>8</v>
+      </c>
+      <c r="E14" s="70">
+        <v>11</v>
+      </c>
+      <c r="F14" s="74">
+        <v>16</v>
+      </c>
+      <c r="G14" s="68"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -2149,27 +2447,64 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
-      <c r="AB14" s="71"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="34"/>
-      <c r="AE14" s="43"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="38"/>
-      <c r="AK14" s="60"/>
-      <c r="AL14" s="60"/>
-      <c r="AM14" s="60"/>
-      <c r="AN14" s="60"/>
+      <c r="AB14" s="65"/>
+      <c r="AC14" s="40">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="32">
+        <v>3</v>
+      </c>
+      <c r="AE14" s="41">
+        <v>20</v>
+      </c>
+      <c r="AF14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="36">
+        <v>9</v>
+      </c>
+      <c r="AK14" s="58"/>
+      <c r="AL14" s="58"/>
+      <c r="AM14" s="58"/>
+      <c r="AN14" s="58"/>
+      <c r="AV14" s="113" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW14" s="113"/>
+      <c r="AX14" s="113"/>
+      <c r="AY14" s="113"/>
+      <c r="AZ14" s="113"/>
+      <c r="BA14" s="113"/>
+      <c r="BB14" s="113"/>
+      <c r="BC14" s="113"/>
+      <c r="BD14" s="113"/>
+      <c r="BE14" s="113"/>
+      <c r="BF14" s="113"/>
+      <c r="BG14" s="113"/>
+      <c r="BH14" s="113"/>
+      <c r="BI14" s="113"/>
+      <c r="BJ14" s="113"/>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="74"/>
+      <c r="B15" s="70">
+        <v>12</v>
+      </c>
+      <c r="C15" s="76">
+        <v>12</v>
+      </c>
+      <c r="D15" s="84">
+        <v>16</v>
+      </c>
+      <c r="E15" s="80">
+        <v>16</v>
+      </c>
+      <c r="F15" s="83">
+        <v>16</v>
+      </c>
+      <c r="G15" s="68"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -2190,35 +2525,55 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="33"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="35">
+        <v>10</v>
+      </c>
+      <c r="AD15" s="37">
+        <v>10</v>
+      </c>
+      <c r="AE15" s="37">
+        <v>10</v>
+      </c>
+      <c r="AF15" s="42">
+        <v>10</v>
+      </c>
+      <c r="AG15" s="31">
+        <v>13</v>
+      </c>
       <c r="AI15" t="s">
         <v>8</v>
       </c>
       <c r="AJ15" t="s">
         <v>41</v>
       </c>
-      <c r="AM15" s="60"/>
-      <c r="AN15" s="60" t="s">
+      <c r="AM15" s="58"/>
+      <c r="AN15" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="AO15" s="60"/>
-      <c r="BH15" s="60"/>
+      <c r="AO15" s="58"/>
+      <c r="BH15" s="58"/>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="94"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="74"/>
+      <c r="B16" s="74">
+        <v>12</v>
+      </c>
+      <c r="C16" s="72">
+        <v>19</v>
+      </c>
+      <c r="D16" s="84">
+        <v>2</v>
+      </c>
+      <c r="E16" s="80">
+        <v>2</v>
+      </c>
+      <c r="F16" s="81">
+        <v>2</v>
+      </c>
+      <c r="G16" s="68"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -2239,33 +2594,53 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="43"/>
-      <c r="AD16" s="36"/>
-      <c r="AE16" s="44"/>
-      <c r="AF16" s="36"/>
-      <c r="AG16" s="38"/>
-      <c r="AJ16" s="46">
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="41">
+        <v>10</v>
+      </c>
+      <c r="AD16" s="34">
+        <v>17</v>
+      </c>
+      <c r="AE16" s="42">
+        <v>17</v>
+      </c>
+      <c r="AF16" s="34">
+        <v>13</v>
+      </c>
+      <c r="AG16" s="36">
+        <v>13</v>
+      </c>
+      <c r="AJ16" s="44">
         <v>2</v>
       </c>
-      <c r="AK16" s="47"/>
-      <c r="AL16" s="48"/>
-      <c r="AM16" s="49"/>
-      <c r="AN16" s="55">
+      <c r="AK16" s="45"/>
+      <c r="AL16" s="46"/>
+      <c r="AM16" s="47"/>
+      <c r="AN16" s="53">
         <v>3</v>
       </c>
-      <c r="AO16" s="60"/>
+      <c r="AO16" s="58"/>
     </row>
     <row r="17" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="74"/>
+      <c r="B17" s="70">
+        <v>12</v>
+      </c>
+      <c r="C17" s="70">
+        <v>19</v>
+      </c>
+      <c r="D17" s="69">
+        <v>19</v>
+      </c>
+      <c r="E17" s="69">
+        <v>19</v>
+      </c>
+      <c r="F17" s="82">
+        <v>17</v>
+      </c>
+      <c r="G17" s="68"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -2286,28 +2661,48 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="38"/>
-      <c r="AK17" s="60"/>
-      <c r="AM17" s="49"/>
-      <c r="AN17" s="58"/>
-      <c r="AO17" s="48"/>
-      <c r="AP17" s="52"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="35">
+        <v>17</v>
+      </c>
+      <c r="AD17" s="42">
+        <v>17</v>
+      </c>
+      <c r="AE17" s="31">
+        <v>19</v>
+      </c>
+      <c r="AF17" s="40">
+        <v>13</v>
+      </c>
+      <c r="AG17" s="36">
+        <v>13</v>
+      </c>
+      <c r="AK17" s="58"/>
+      <c r="AM17" s="47"/>
+      <c r="AN17" s="56"/>
+      <c r="AO17" s="46"/>
+      <c r="AP17" s="50"/>
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="74"/>
+      <c r="B18" s="73">
+        <v>13</v>
+      </c>
+      <c r="C18" s="72">
+        <v>13</v>
+      </c>
+      <c r="D18" s="70">
+        <v>19</v>
+      </c>
+      <c r="E18" s="73">
+        <v>17</v>
+      </c>
+      <c r="F18" s="77">
+        <v>17</v>
+      </c>
+      <c r="G18" s="68"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -2328,16 +2723,26 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="43"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="39"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="33"/>
-      <c r="AJ18" s="60"/>
-      <c r="AK18" s="60"/>
-      <c r="AL18" s="60"/>
-      <c r="AM18" s="60"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="41">
+        <v>17</v>
+      </c>
+      <c r="AD18" s="37">
+        <v>19</v>
+      </c>
+      <c r="AE18" s="37">
+        <v>19</v>
+      </c>
+      <c r="AF18" s="36">
+        <v>19</v>
+      </c>
+      <c r="AG18" s="31">
+        <v>12</v>
+      </c>
+      <c r="AJ18" s="58"/>
+      <c r="AK18" s="58"/>
+      <c r="AL18" s="58"/>
+      <c r="AM18" s="58"/>
       <c r="BM18"/>
       <c r="BN18"/>
     </row>
@@ -2345,12 +2750,22 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="90"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="74"/>
+      <c r="B19" s="70">
+        <v>13</v>
+      </c>
+      <c r="C19" s="69">
+        <v>13</v>
+      </c>
+      <c r="D19" s="73">
+        <v>17</v>
+      </c>
+      <c r="E19" s="83">
+        <v>17</v>
+      </c>
+      <c r="F19" s="82">
+        <v>10</v>
+      </c>
+      <c r="G19" s="68"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -2371,22 +2786,32 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-      <c r="AB19" s="71"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="39"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="44"/>
-      <c r="AG19" s="38"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="40">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="37">
+        <v>2</v>
+      </c>
+      <c r="AE19" s="32">
+        <v>2</v>
+      </c>
+      <c r="AF19" s="42">
+        <v>19</v>
+      </c>
+      <c r="AG19" s="36">
+        <v>12</v>
+      </c>
       <c r="AI19" t="s">
         <v>9</v>
       </c>
       <c r="AJ19" t="s">
         <v>44</v>
       </c>
-      <c r="AO19" s="60" t="s">
+      <c r="AO19" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="AP19" s="60"/>
+      <c r="AP19" s="58"/>
       <c r="AS19" t="s">
         <v>28</v>
       </c>
@@ -2404,12 +2829,22 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="90"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="74"/>
+      <c r="B20" s="70">
+        <v>13</v>
+      </c>
+      <c r="C20" s="73">
+        <v>10</v>
+      </c>
+      <c r="D20" s="80">
+        <v>10</v>
+      </c>
+      <c r="E20" s="80">
+        <v>10</v>
+      </c>
+      <c r="F20" s="77">
+        <v>10</v>
+      </c>
+      <c r="G20" s="68"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -2430,38 +2865,48 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
-      <c r="AB20" s="71"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="38"/>
-      <c r="AJ20" s="46">
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="35">
+        <v>16</v>
+      </c>
+      <c r="AD20" s="34">
+        <v>16</v>
+      </c>
+      <c r="AE20" s="29">
+        <v>16</v>
+      </c>
+      <c r="AF20" s="33">
+        <v>12</v>
+      </c>
+      <c r="AG20" s="36">
+        <v>12</v>
+      </c>
+      <c r="AJ20" s="44">
         <v>4</v>
       </c>
-      <c r="AK20" s="47"/>
-      <c r="AL20" s="47"/>
-      <c r="AM20" s="48"/>
-      <c r="AN20" s="49"/>
-      <c r="AO20" s="55">
+      <c r="AK20" s="45"/>
+      <c r="AL20" s="45"/>
+      <c r="AM20" s="46"/>
+      <c r="AN20" s="47"/>
+      <c r="AO20" s="53">
         <v>5</v>
       </c>
-      <c r="AP20" s="113"/>
-      <c r="AQ20" s="50"/>
+      <c r="AP20" s="93"/>
+      <c r="AQ20" s="48"/>
       <c r="AS20">
         <v>6</v>
       </c>
-      <c r="AT20" s="51"/>
-      <c r="AU20" s="113"/>
-      <c r="AW20" s="51">
+      <c r="AT20" s="49"/>
+      <c r="AU20" s="93"/>
+      <c r="AW20" s="49">
         <v>7</v>
       </c>
-      <c r="AX20" s="114"/>
-      <c r="AY20" s="57"/>
-      <c r="AZ20" s="46">
+      <c r="AX20" s="94"/>
+      <c r="AY20" s="55"/>
+      <c r="AZ20" s="44">
         <v>8</v>
       </c>
-      <c r="BA20" s="114"/>
+      <c r="BA20" s="94"/>
       <c r="BL20"/>
       <c r="BN20"/>
     </row>
@@ -2469,12 +2914,22 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="74"/>
+      <c r="B21" s="82">
+        <v>9</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0</v>
+      </c>
+      <c r="D21" s="70">
+        <v>20</v>
+      </c>
+      <c r="E21" s="70">
+        <v>3</v>
+      </c>
+      <c r="F21" s="76">
+        <v>3</v>
+      </c>
+      <c r="G21" s="68"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -2497,28 +2952,38 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="35"/>
-      <c r="AF21" s="31"/>
-      <c r="AG21" s="43"/>
-      <c r="AK21" s="60"/>
-      <c r="AN21" s="49"/>
-      <c r="AO21" s="58"/>
-      <c r="AP21" s="59"/>
-      <c r="AQ21" s="111"/>
-      <c r="AR21" s="57"/>
-      <c r="AS21" s="47"/>
-      <c r="AT21" s="45"/>
-      <c r="AU21" s="45"/>
-      <c r="AV21" s="52"/>
-      <c r="AW21" s="58"/>
-      <c r="AX21" s="111"/>
-      <c r="AZ21" s="115"/>
-      <c r="BA21" s="45"/>
-      <c r="BB21" s="107"/>
-      <c r="BC21" s="52"/>
+      <c r="AB21" s="65"/>
+      <c r="AC21" s="39">
+        <v>16</v>
+      </c>
+      <c r="AD21" s="31">
+        <v>11</v>
+      </c>
+      <c r="AE21" s="33">
+        <v>8</v>
+      </c>
+      <c r="AF21" s="29">
+        <v>8</v>
+      </c>
+      <c r="AG21" s="41">
+        <v>12</v>
+      </c>
+      <c r="AK21" s="58"/>
+      <c r="AN21" s="47"/>
+      <c r="AO21" s="56"/>
+      <c r="AP21" s="57"/>
+      <c r="AQ21" s="91"/>
+      <c r="AR21" s="55"/>
+      <c r="AS21" s="45"/>
+      <c r="AT21" s="43"/>
+      <c r="AU21" s="43"/>
+      <c r="AV21" s="50"/>
+      <c r="AW21" s="56"/>
+      <c r="AX21" s="91"/>
+      <c r="AZ21" s="95"/>
+      <c r="BA21" s="43"/>
+      <c r="BB21" s="87"/>
+      <c r="BC21" s="50"/>
       <c r="BL21"/>
       <c r="BN21"/>
     </row>
@@ -2526,12 +2991,22 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="74"/>
+      <c r="B22" s="74">
+        <v>9</v>
+      </c>
+      <c r="C22" s="71">
+        <v>20</v>
+      </c>
+      <c r="D22" s="69">
+        <v>20</v>
+      </c>
+      <c r="E22" s="80">
+        <v>20</v>
+      </c>
+      <c r="F22" s="75">
+        <v>3</v>
+      </c>
+      <c r="G22" s="68"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -2552,29 +3027,49 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="43"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="44"/>
-      <c r="AK22" s="60"/>
-      <c r="AT22" s="53"/>
-      <c r="AU22" s="53"/>
-      <c r="BA22" s="53"/>
-      <c r="BB22" s="53"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="41">
+        <v>16</v>
+      </c>
+      <c r="AD22" s="36">
+        <v>11</v>
+      </c>
+      <c r="AE22" s="31">
+        <v>18</v>
+      </c>
+      <c r="AF22" s="40">
+        <v>8</v>
+      </c>
+      <c r="AG22" s="42">
+        <v>8</v>
+      </c>
+      <c r="AK22" s="58"/>
+      <c r="AT22" s="51"/>
+      <c r="AU22" s="51"/>
+      <c r="BA22" s="51"/>
+      <c r="BB22" s="51"/>
       <c r="BL22"/>
     </row>
     <row r="23" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="94"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="74"/>
+      <c r="B23" s="74">
+        <v>9</v>
+      </c>
+      <c r="C23" s="69">
+        <v>6</v>
+      </c>
+      <c r="D23" s="75">
+        <v>20</v>
+      </c>
+      <c r="E23" s="82">
+        <v>15</v>
+      </c>
+      <c r="F23" s="82">
+        <v>1</v>
+      </c>
+      <c r="G23" s="68"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -2595,47 +3090,67 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
-      <c r="AB23" s="71"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="39"/>
-      <c r="AF23" s="39"/>
-      <c r="AG23" s="38"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="35">
+        <v>11</v>
+      </c>
+      <c r="AD23" s="42">
+        <v>11</v>
+      </c>
+      <c r="AE23" s="37">
+        <v>18</v>
+      </c>
+      <c r="AF23" s="37">
+        <v>18</v>
+      </c>
+      <c r="AG23" s="36">
+        <v>18</v>
+      </c>
       <c r="AI23" t="s">
         <v>10</v>
       </c>
       <c r="AJ23" t="s">
         <v>45</v>
       </c>
-      <c r="AK23" s="60"/>
-      <c r="AP23" s="60" t="s">
+      <c r="AK23" s="58"/>
+      <c r="AP23" s="58" t="s">
         <v>30</v>
       </c>
       <c r="AU23" t="s">
         <v>31</v>
       </c>
-      <c r="AZ23" s="50" t="s">
+      <c r="AZ23" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="BA23" s="50"/>
-      <c r="BB23" s="50"/>
-      <c r="BC23" s="50"/>
-      <c r="BE23" s="50" t="s">
+      <c r="BA23" s="48"/>
+      <c r="BB23" s="48"/>
+      <c r="BC23" s="48"/>
+      <c r="BE23" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="BF23" s="50"/>
+      <c r="BF23" s="48"/>
       <c r="BL23"/>
     </row>
     <row r="24" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="74"/>
+      <c r="B24" s="74">
+        <v>9</v>
+      </c>
+      <c r="C24" s="69">
+        <v>6</v>
+      </c>
+      <c r="D24" s="72">
+        <v>6</v>
+      </c>
+      <c r="E24" s="70">
+        <v>15</v>
+      </c>
+      <c r="F24" s="75">
+        <v>1</v>
+      </c>
+      <c r="G24" s="68"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -2656,58 +3171,78 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
-      <c r="AB24" s="71"/>
-      <c r="AC24" s="43"/>
-      <c r="AD24" s="39"/>
-      <c r="AE24" s="39"/>
-      <c r="AF24" s="38"/>
-      <c r="AG24" s="44"/>
-      <c r="AJ24" s="46">
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="41">
+        <v>11</v>
+      </c>
+      <c r="AD24" s="37">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="37">
+        <v>5</v>
+      </c>
+      <c r="AF24" s="36">
+        <v>5</v>
+      </c>
+      <c r="AG24" s="42">
+        <v>18</v>
+      </c>
+      <c r="AJ24" s="44">
         <v>9</v>
       </c>
-      <c r="AK24" s="47"/>
-      <c r="AL24" s="47"/>
-      <c r="AM24" s="47"/>
-      <c r="AN24" s="48"/>
-      <c r="AO24" s="49"/>
-      <c r="AP24" s="55">
+      <c r="AK24" s="45"/>
+      <c r="AL24" s="45"/>
+      <c r="AM24" s="45"/>
+      <c r="AN24" s="46"/>
+      <c r="AO24" s="47"/>
+      <c r="AP24" s="53">
         <v>10</v>
       </c>
-      <c r="AQ24" s="50"/>
-      <c r="AR24" s="50"/>
-      <c r="AS24" s="50"/>
-      <c r="AU24" s="46">
+      <c r="AQ24" s="48"/>
+      <c r="AR24" s="48"/>
+      <c r="AS24" s="48"/>
+      <c r="AU24" s="44">
         <v>11</v>
       </c>
-      <c r="AV24" s="114"/>
-      <c r="AW24" s="113"/>
-      <c r="AX24" s="50"/>
-      <c r="AY24" s="49"/>
-      <c r="AZ24" s="46">
+      <c r="AV24" s="94"/>
+      <c r="AW24" s="93"/>
+      <c r="AX24" s="48"/>
+      <c r="AY24" s="47"/>
+      <c r="AZ24" s="44">
         <v>12</v>
       </c>
-      <c r="BA24" s="47"/>
-      <c r="BB24" s="45"/>
-      <c r="BC24" s="45"/>
-      <c r="BD24" s="57"/>
-      <c r="BE24" s="45">
+      <c r="BA24" s="45"/>
+      <c r="BB24" s="43"/>
+      <c r="BC24" s="43"/>
+      <c r="BD24" s="55"/>
+      <c r="BE24" s="43">
         <v>13</v>
       </c>
-      <c r="BF24" s="114"/>
-      <c r="BG24" s="50"/>
-      <c r="BH24" s="60"/>
+      <c r="BF24" s="94"/>
+      <c r="BG24" s="48"/>
+      <c r="BH24" s="58"/>
       <c r="BL24"/>
     </row>
     <row r="25" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="74"/>
+      <c r="B25" s="75">
+        <v>9</v>
+      </c>
+      <c r="C25" s="75">
+        <v>6</v>
+      </c>
+      <c r="D25" s="80">
+        <v>15</v>
+      </c>
+      <c r="E25" s="78">
+        <v>15</v>
+      </c>
+      <c r="F25" s="77">
+        <v>15</v>
+      </c>
+      <c r="G25" s="68"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -2728,44 +3263,64 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
-      <c r="AB25" s="71"/>
-      <c r="AC25" s="37"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="43"/>
-      <c r="AG25" s="38"/>
-      <c r="AO25" s="49"/>
-      <c r="AP25" s="58"/>
-      <c r="AQ25" s="59"/>
-      <c r="AR25" s="59"/>
-      <c r="AS25" s="59"/>
-      <c r="AT25" s="52"/>
-      <c r="AU25" s="115"/>
-      <c r="AV25" s="58"/>
-      <c r="AW25" s="59"/>
-      <c r="AX25" s="59"/>
-      <c r="AY25" s="52"/>
-      <c r="BA25" s="115"/>
-      <c r="BB25" s="58"/>
-      <c r="BC25" s="116"/>
-      <c r="BD25" s="49"/>
-      <c r="BE25" s="58"/>
-      <c r="BF25" s="59"/>
-      <c r="BG25" s="48"/>
-      <c r="BH25" s="117"/>
-      <c r="BI25" s="60"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="35">
+        <v>7</v>
+      </c>
+      <c r="AD25" s="29">
+        <v>7</v>
+      </c>
+      <c r="AE25" s="31">
+        <v>14</v>
+      </c>
+      <c r="AF25" s="41">
+        <v>5</v>
+      </c>
+      <c r="AG25" s="36">
+        <v>14</v>
+      </c>
+      <c r="AO25" s="47"/>
+      <c r="AP25" s="56"/>
+      <c r="AQ25" s="57"/>
+      <c r="AR25" s="57"/>
+      <c r="AS25" s="57"/>
+      <c r="AT25" s="50"/>
+      <c r="AU25" s="95"/>
+      <c r="AV25" s="56"/>
+      <c r="AW25" s="57"/>
+      <c r="AX25" s="57"/>
+      <c r="AY25" s="50"/>
+      <c r="BA25" s="95"/>
+      <c r="BB25" s="56"/>
+      <c r="BC25" s="96"/>
+      <c r="BD25" s="47"/>
+      <c r="BE25" s="56"/>
+      <c r="BF25" s="57"/>
+      <c r="BG25" s="46"/>
+      <c r="BH25" s="97"/>
+      <c r="BI25" s="58"/>
       <c r="BL25"/>
     </row>
     <row r="26" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="91"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="74"/>
+      <c r="B26" s="71">
+        <v>4</v>
+      </c>
+      <c r="C26" s="78">
+        <v>4</v>
+      </c>
+      <c r="D26" s="78">
+        <v>4</v>
+      </c>
+      <c r="E26" s="78">
+        <v>4</v>
+      </c>
+      <c r="F26" s="8">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="68"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -2786,24 +3341,34 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="3"/>
       <c r="AA26" s="3"/>
-      <c r="AB26" s="71"/>
-      <c r="AC26" s="42"/>
-      <c r="AD26" s="44"/>
-      <c r="AE26" s="39"/>
-      <c r="AF26" s="40"/>
-      <c r="AG26" s="44"/>
-      <c r="AK26" s="60"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="40">
+        <v>7</v>
+      </c>
+      <c r="AD26" s="42">
+        <v>7</v>
+      </c>
+      <c r="AE26" s="37">
+        <v>14</v>
+      </c>
+      <c r="AF26" s="38">
+        <v>14</v>
+      </c>
+      <c r="AG26" s="42">
+        <v>14</v>
+      </c>
+      <c r="AK26" s="58"/>
       <c r="BL26"/>
     </row>
     <row r="27" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="73"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="67"/>
       <c r="G27" s="2"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -2826,26 +3391,26 @@
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="2"/>
-      <c r="AC27" s="73"/>
-      <c r="AD27" s="73"/>
-      <c r="AE27" s="73"/>
-      <c r="AF27" s="73"/>
-      <c r="AG27" s="73"/>
+      <c r="AC27" s="67"/>
+      <c r="AD27" s="67"/>
+      <c r="AE27" s="67"/>
+      <c r="AF27" s="67"/>
+      <c r="AG27" s="67"/>
       <c r="AJ27" t="s">
         <v>34</v>
       </c>
-      <c r="AK27" s="60"/>
-      <c r="AL27" s="50"/>
+      <c r="AK27" s="58"/>
+      <c r="AL27" s="48"/>
       <c r="AN27" t="s">
         <v>35</v>
       </c>
       <c r="AR27" t="s">
         <v>36</v>
       </c>
-      <c r="AV27" s="50" t="s">
+      <c r="AV27" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="AW27" s="50"/>
+      <c r="AW27" s="48"/>
       <c r="AZ27" t="s">
         <v>37</v>
       </c>
@@ -2893,44 +3458,44 @@
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
       <c r="AG28" s="2"/>
-      <c r="AI28" s="49"/>
-      <c r="AJ28" s="107">
+      <c r="AI28" s="47"/>
+      <c r="AJ28" s="87">
         <v>14</v>
       </c>
-      <c r="AK28" s="57"/>
-      <c r="AL28" s="108"/>
-      <c r="AN28" s="49">
+      <c r="AK28" s="55"/>
+      <c r="AL28" s="88"/>
+      <c r="AN28" s="47">
         <v>15</v>
       </c>
-      <c r="AO28" s="55"/>
-      <c r="AQ28" s="49"/>
-      <c r="AR28" s="55">
+      <c r="AO28" s="53"/>
+      <c r="AQ28" s="47"/>
+      <c r="AR28" s="53">
         <v>16</v>
       </c>
-      <c r="AS28" s="60"/>
-      <c r="AT28" s="60"/>
-      <c r="AV28" s="58">
+      <c r="AS28" s="58"/>
+      <c r="AT28" s="58"/>
+      <c r="AV28" s="56">
         <v>17</v>
       </c>
-      <c r="AW28" s="45"/>
-      <c r="AX28" s="113"/>
-      <c r="AY28" s="49"/>
-      <c r="AZ28" s="55">
+      <c r="AW28" s="43"/>
+      <c r="AX28" s="93"/>
+      <c r="AY28" s="47"/>
+      <c r="AZ28" s="53">
         <v>18</v>
       </c>
-      <c r="BA28" s="113"/>
-      <c r="BB28" s="50"/>
-      <c r="BC28" s="49"/>
-      <c r="BD28" s="51">
+      <c r="BA28" s="93"/>
+      <c r="BB28" s="48"/>
+      <c r="BC28" s="47"/>
+      <c r="BD28" s="49">
         <v>19</v>
       </c>
-      <c r="BE28" s="113"/>
-      <c r="BF28" s="50"/>
-      <c r="BH28" s="112">
+      <c r="BE28" s="93"/>
+      <c r="BF28" s="48"/>
+      <c r="BH28" s="92">
         <v>20</v>
       </c>
-      <c r="BI28" s="51"/>
-      <c r="BJ28" s="52"/>
+      <c r="BI28" s="49"/>
+      <c r="BJ28" s="50"/>
       <c r="BL28"/>
     </row>
     <row r="29" spans="1:66" x14ac:dyDescent="0.2">
@@ -2944,24 +3509,60 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="15"/>
+      <c r="I29" s="14">
+        <v>7</v>
+      </c>
+      <c r="J29" s="15">
+        <v>7</v>
+      </c>
+      <c r="K29" s="21">
+        <v>11</v>
+      </c>
+      <c r="L29" s="15">
+        <v>11</v>
+      </c>
+      <c r="M29" s="21">
+        <v>16</v>
+      </c>
+      <c r="N29" s="21">
+        <v>16</v>
+      </c>
+      <c r="O29" s="15">
+        <v>16</v>
+      </c>
+      <c r="P29" s="27">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="21">
+        <v>17</v>
+      </c>
+      <c r="R29" s="15">
+        <v>17</v>
+      </c>
+      <c r="S29" s="21">
+        <v>10</v>
+      </c>
+      <c r="T29" s="15">
+        <v>10</v>
+      </c>
+      <c r="U29" s="21">
+        <v>3</v>
+      </c>
+      <c r="V29" s="23">
+        <v>3</v>
+      </c>
+      <c r="W29" s="22">
+        <v>1</v>
+      </c>
+      <c r="X29" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="27">
+        <v>15</v>
+      </c>
+      <c r="Z29" s="13">
+        <v>-1</v>
+      </c>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
@@ -2969,32 +3570,32 @@
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
-      <c r="AI29" s="49"/>
-      <c r="AJ29" s="58"/>
-      <c r="AK29" s="47"/>
-      <c r="AL29" s="111"/>
-      <c r="AM29" s="60"/>
-      <c r="AN29" s="112"/>
-      <c r="AO29" s="54"/>
-      <c r="AP29" s="113"/>
-      <c r="AQ29" s="49"/>
-      <c r="AR29" s="54"/>
-      <c r="AS29" s="50"/>
-      <c r="AT29" s="50"/>
-      <c r="AW29" s="106"/>
-      <c r="AX29" s="108"/>
-      <c r="AY29" s="49"/>
-      <c r="AZ29" s="45"/>
-      <c r="BA29" s="45"/>
-      <c r="BB29" s="108"/>
-      <c r="BC29" s="49"/>
-      <c r="BD29" s="58"/>
-      <c r="BE29" s="45"/>
-      <c r="BF29" s="114"/>
-      <c r="BH29" s="51"/>
-      <c r="BI29" s="45"/>
-      <c r="BJ29" s="47"/>
-      <c r="BK29" s="52"/>
+      <c r="AI29" s="47"/>
+      <c r="AJ29" s="56"/>
+      <c r="AK29" s="45"/>
+      <c r="AL29" s="91"/>
+      <c r="AM29" s="58"/>
+      <c r="AN29" s="92"/>
+      <c r="AO29" s="52"/>
+      <c r="AP29" s="93"/>
+      <c r="AQ29" s="47"/>
+      <c r="AR29" s="52"/>
+      <c r="AS29" s="48"/>
+      <c r="AT29" s="48"/>
+      <c r="AW29" s="86"/>
+      <c r="AX29" s="88"/>
+      <c r="AY29" s="47"/>
+      <c r="AZ29" s="43"/>
+      <c r="BA29" s="43"/>
+      <c r="BB29" s="88"/>
+      <c r="BC29" s="47"/>
+      <c r="BD29" s="56"/>
+      <c r="BE29" s="43"/>
+      <c r="BF29" s="94"/>
+      <c r="BH29" s="49"/>
+      <c r="BI29" s="43"/>
+      <c r="BJ29" s="45"/>
+      <c r="BK29" s="50"/>
       <c r="BL29"/>
     </row>
     <row r="30" spans="1:66" x14ac:dyDescent="0.2">
@@ -3008,24 +3609,60 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="14"/>
-      <c r="Z30" s="29"/>
+      <c r="I30" s="18">
+        <v>7</v>
+      </c>
+      <c r="J30" s="19">
+        <v>7</v>
+      </c>
+      <c r="K30" s="27">
+        <v>5</v>
+      </c>
+      <c r="L30" s="25">
+        <v>11</v>
+      </c>
+      <c r="M30" s="26">
+        <v>11</v>
+      </c>
+      <c r="N30" s="23">
+        <v>11</v>
+      </c>
+      <c r="O30" s="19">
+        <v>16</v>
+      </c>
+      <c r="P30" s="24">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="27">
+        <v>19</v>
+      </c>
+      <c r="R30" s="12">
+        <v>17</v>
+      </c>
+      <c r="S30" s="15">
+        <v>17</v>
+      </c>
+      <c r="T30" s="19">
+        <v>10</v>
+      </c>
+      <c r="U30" s="24">
+        <v>3</v>
+      </c>
+      <c r="V30" s="27">
+        <v>20</v>
+      </c>
+      <c r="W30" s="16">
+        <v>15</v>
+      </c>
+      <c r="X30" s="12">
+        <v>15</v>
+      </c>
+      <c r="Y30" s="12">
+        <v>15</v>
+      </c>
+      <c r="Z30" s="27">
+        <v>4</v>
+      </c>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
@@ -3033,24 +3670,24 @@
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
-      <c r="AM30" s="49"/>
-      <c r="AN30" s="58"/>
-      <c r="AO30" s="59"/>
-      <c r="AP30" s="59"/>
-      <c r="AQ30" s="57"/>
-      <c r="AR30" s="58"/>
-      <c r="AS30" s="59"/>
-      <c r="AT30" s="111"/>
-      <c r="AW30" s="53"/>
-      <c r="AX30" s="56"/>
-      <c r="AZ30" s="53"/>
-      <c r="BA30" s="53"/>
-      <c r="BB30" s="56"/>
-      <c r="BD30" s="49"/>
-      <c r="BE30" s="56"/>
-      <c r="BF30" s="116"/>
-      <c r="BH30" s="53"/>
-      <c r="BI30" s="56"/>
+      <c r="AM30" s="47"/>
+      <c r="AN30" s="56"/>
+      <c r="AO30" s="57"/>
+      <c r="AP30" s="57"/>
+      <c r="AQ30" s="55"/>
+      <c r="AR30" s="56"/>
+      <c r="AS30" s="57"/>
+      <c r="AT30" s="91"/>
+      <c r="AW30" s="51"/>
+      <c r="AX30" s="54"/>
+      <c r="AZ30" s="51"/>
+      <c r="BA30" s="51"/>
+      <c r="BB30" s="54"/>
+      <c r="BD30" s="47"/>
+      <c r="BE30" s="54"/>
+      <c r="BF30" s="96"/>
+      <c r="BH30" s="51"/>
+      <c r="BI30" s="54"/>
       <c r="BL30"/>
     </row>
     <row r="31" spans="1:66" x14ac:dyDescent="0.2">
@@ -3064,24 +3701,60 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="25"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="25"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="25"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="26"/>
+      <c r="I31" s="14">
+        <v>14</v>
+      </c>
+      <c r="J31" s="23">
+        <v>14</v>
+      </c>
+      <c r="K31" s="19">
+        <v>5</v>
+      </c>
+      <c r="L31" s="12">
+        <v>18</v>
+      </c>
+      <c r="M31" s="23">
+        <v>18</v>
+      </c>
+      <c r="N31" s="12">
+        <v>8</v>
+      </c>
+      <c r="O31" s="20">
+        <v>16</v>
+      </c>
+      <c r="P31" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="12">
+        <v>19</v>
+      </c>
+      <c r="R31" s="23">
+        <v>19</v>
+      </c>
+      <c r="S31" s="20">
+        <v>17</v>
+      </c>
+      <c r="T31" s="19">
+        <v>10</v>
+      </c>
+      <c r="U31" s="14">
+        <v>20</v>
+      </c>
+      <c r="V31" s="12">
+        <v>20</v>
+      </c>
+      <c r="W31" s="23">
+        <v>20</v>
+      </c>
+      <c r="X31" s="27">
+        <v>6</v>
+      </c>
+      <c r="Y31" s="20">
+        <v>15</v>
+      </c>
+      <c r="Z31" s="24">
+        <v>4</v>
+      </c>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
@@ -3089,8 +3762,8 @@
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
-      <c r="BB31" s="53"/>
-      <c r="BI31" s="53"/>
+      <c r="BB31" s="51"/>
+      <c r="BI31" s="51"/>
     </row>
     <row r="32" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
@@ -3103,24 +3776,60 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="19"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="26"/>
+      <c r="I32" s="24">
+        <v>14</v>
+      </c>
+      <c r="J32" s="12">
+        <v>5</v>
+      </c>
+      <c r="K32" s="17">
+        <v>5</v>
+      </c>
+      <c r="L32" s="19">
+        <v>18</v>
+      </c>
+      <c r="M32" s="12">
+        <v>8</v>
+      </c>
+      <c r="N32" s="17">
+        <v>8</v>
+      </c>
+      <c r="O32" s="27">
+        <v>12</v>
+      </c>
+      <c r="P32" s="12">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="17">
+        <v>19</v>
+      </c>
+      <c r="R32" s="12">
+        <v>13</v>
+      </c>
+      <c r="S32" s="15">
+        <v>13</v>
+      </c>
+      <c r="T32" s="19">
+        <v>10</v>
+      </c>
+      <c r="U32" s="9">
+        <v>0</v>
+      </c>
+      <c r="V32" s="20">
+        <v>20</v>
+      </c>
+      <c r="W32" s="12">
+        <v>6</v>
+      </c>
+      <c r="X32" s="12">
+        <v>6</v>
+      </c>
+      <c r="Y32" s="12">
+        <v>6</v>
+      </c>
+      <c r="Z32" s="24">
+        <v>4</v>
+      </c>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
@@ -3128,8 +3837,11 @@
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="AJ32" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3140,24 +3852,60 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="22"/>
+      <c r="I33" s="16">
+        <v>14</v>
+      </c>
+      <c r="J33" s="23">
+        <v>14</v>
+      </c>
+      <c r="K33" s="25">
+        <v>18</v>
+      </c>
+      <c r="L33" s="17">
+        <v>18</v>
+      </c>
+      <c r="M33" s="20">
+        <v>8</v>
+      </c>
+      <c r="N33" s="25">
+        <v>12</v>
+      </c>
+      <c r="O33" s="25">
+        <v>12</v>
+      </c>
+      <c r="P33" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q33" s="23">
+        <v>12</v>
+      </c>
+      <c r="R33" s="25">
+        <v>13</v>
+      </c>
+      <c r="S33" s="25">
+        <v>13</v>
+      </c>
+      <c r="T33" s="23">
+        <v>13</v>
+      </c>
+      <c r="U33" s="26">
+        <v>9</v>
+      </c>
+      <c r="V33" s="26">
+        <v>9</v>
+      </c>
+      <c r="W33" s="26">
+        <v>9</v>
+      </c>
+      <c r="X33" s="26">
+        <v>9</v>
+      </c>
+      <c r="Y33" s="23">
+        <v>9</v>
+      </c>
+      <c r="Z33" s="20">
+        <v>4</v>
+      </c>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
@@ -3166,39 +3914,1174 @@
       <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="AB37" s="60"/>
-      <c r="AK37" s="60"/>
-    </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="AJ38" s="60"/>
-    </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="AJ39" s="60"/>
-    </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="AJ40" s="60"/>
-    </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="AM44" s="60"/>
-    </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="AM45" s="60"/>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="AM46" s="60"/>
+      <c r="AJ34" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK34" s="113"/>
+      <c r="AL34" s="113"/>
+      <c r="AM34" s="113"/>
+      <c r="AN34" s="113"/>
+      <c r="AO34" s="113"/>
+      <c r="AP34" s="113"/>
+      <c r="AQ34" s="113"/>
+      <c r="AR34" s="113"/>
+      <c r="AS34" s="113"/>
+      <c r="AT34" s="113"/>
+      <c r="AU34" s="113"/>
+      <c r="AV34" s="113"/>
+      <c r="AW34" s="113"/>
+      <c r="AX34" s="113"/>
+      <c r="AY34" s="113"/>
+      <c r="AZ34" s="113"/>
+      <c r="BA34" s="113"/>
+      <c r="BB34" s="113"/>
+      <c r="BC34" s="113"/>
+      <c r="BD34" s="113"/>
+      <c r="BE34" s="113"/>
+      <c r="BF34" s="113"/>
+      <c r="BG34" s="113"/>
+      <c r="BH34" s="113"/>
+      <c r="BI34" s="113"/>
+      <c r="BJ34" s="113"/>
+    </row>
+    <row r="37" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="AB37" s="58"/>
+      <c r="AK37" s="58"/>
+    </row>
+    <row r="38" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A38" s="73">
+        <v>14</v>
+      </c>
+      <c r="B38" s="72">
+        <v>14</v>
+      </c>
+      <c r="C38" s="72">
+        <v>14</v>
+      </c>
+      <c r="D38" s="73">
+        <v>7</v>
+      </c>
+      <c r="E38" s="76">
+        <v>7</v>
+      </c>
+      <c r="I38" s="98">
+        <v>4</v>
+      </c>
+      <c r="J38" s="99">
+        <v>9</v>
+      </c>
+      <c r="K38" s="100">
+        <v>9</v>
+      </c>
+      <c r="L38" s="100">
+        <v>9</v>
+      </c>
+      <c r="M38" s="100">
+        <v>9</v>
+      </c>
+      <c r="N38" s="100">
+        <v>9</v>
+      </c>
+      <c r="O38" s="99">
+        <v>13</v>
+      </c>
+      <c r="P38" s="101">
+        <v>13</v>
+      </c>
+      <c r="Q38" s="102">
+        <v>13</v>
+      </c>
+      <c r="R38" s="101">
+        <v>12</v>
+      </c>
+      <c r="S38" s="101">
+        <v>12</v>
+      </c>
+      <c r="T38" s="101">
+        <v>12</v>
+      </c>
+      <c r="U38" s="103">
+        <v>12</v>
+      </c>
+      <c r="V38" s="98">
+        <v>8</v>
+      </c>
+      <c r="W38" s="101">
+        <v>18</v>
+      </c>
+      <c r="X38" s="101">
+        <v>18</v>
+      </c>
+      <c r="Y38" s="104">
+        <v>14</v>
+      </c>
+      <c r="Z38" s="102">
+        <v>14</v>
+      </c>
+      <c r="AC38" s="8">
+        <v>-1</v>
+      </c>
+      <c r="AD38" s="33">
+        <v>4</v>
+      </c>
+      <c r="AE38" s="38">
+        <v>4</v>
+      </c>
+      <c r="AF38" s="38">
+        <v>4</v>
+      </c>
+      <c r="AG38" s="29">
+        <v>4</v>
+      </c>
+      <c r="AJ38" s="58"/>
+    </row>
+    <row r="39" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A39" s="70">
+        <v>14</v>
+      </c>
+      <c r="B39" s="73">
+        <v>5</v>
+      </c>
+      <c r="C39" s="75">
+        <v>14</v>
+      </c>
+      <c r="D39" s="71">
+        <v>7</v>
+      </c>
+      <c r="E39" s="77">
+        <v>7</v>
+      </c>
+      <c r="I39" s="105">
+        <v>4</v>
+      </c>
+      <c r="J39" s="106">
+        <v>6</v>
+      </c>
+      <c r="K39" s="106">
+        <v>6</v>
+      </c>
+      <c r="L39" s="103">
+        <v>6</v>
+      </c>
+      <c r="M39" s="98">
+        <v>20</v>
+      </c>
+      <c r="N39" s="107">
+        <v>0</v>
+      </c>
+      <c r="O39" s="98">
+        <v>10</v>
+      </c>
+      <c r="P39" s="108">
+        <v>13</v>
+      </c>
+      <c r="Q39" s="109">
+        <v>13</v>
+      </c>
+      <c r="R39" s="104">
+        <v>19</v>
+      </c>
+      <c r="S39" s="100">
+        <v>19</v>
+      </c>
+      <c r="T39" s="110">
+        <v>12</v>
+      </c>
+      <c r="U39" s="104">
+        <v>8</v>
+      </c>
+      <c r="V39" s="106">
+        <v>8</v>
+      </c>
+      <c r="W39" s="105">
+        <v>18</v>
+      </c>
+      <c r="X39" s="101">
+        <v>5</v>
+      </c>
+      <c r="Y39" s="101">
+        <v>5</v>
+      </c>
+      <c r="Z39" s="105">
+        <v>14</v>
+      </c>
+      <c r="AC39" s="35">
+        <v>15</v>
+      </c>
+      <c r="AD39" s="34">
+        <v>15</v>
+      </c>
+      <c r="AE39" s="32">
+        <v>15</v>
+      </c>
+      <c r="AF39" s="36">
+        <v>6</v>
+      </c>
+      <c r="AG39" s="31">
+        <v>9</v>
+      </c>
+      <c r="AJ39" s="58"/>
+    </row>
+    <row r="40" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A40" s="73">
+        <v>18</v>
+      </c>
+      <c r="B40" s="71">
+        <v>5</v>
+      </c>
+      <c r="C40" s="80">
+        <v>5</v>
+      </c>
+      <c r="D40" s="81">
+        <v>5</v>
+      </c>
+      <c r="E40" s="76">
+        <v>11</v>
+      </c>
+      <c r="I40" s="105">
+        <v>4</v>
+      </c>
+      <c r="J40" s="98">
+        <v>15</v>
+      </c>
+      <c r="K40" s="110">
+        <v>6</v>
+      </c>
+      <c r="L40" s="99">
+        <v>20</v>
+      </c>
+      <c r="M40" s="106">
+        <v>20</v>
+      </c>
+      <c r="N40" s="103">
+        <v>20</v>
+      </c>
+      <c r="O40" s="105">
+        <v>10</v>
+      </c>
+      <c r="P40" s="98">
+        <v>17</v>
+      </c>
+      <c r="Q40" s="99">
+        <v>19</v>
+      </c>
+      <c r="R40" s="111">
+        <v>19</v>
+      </c>
+      <c r="S40" s="98">
+        <v>2</v>
+      </c>
+      <c r="T40" s="98">
+        <v>16</v>
+      </c>
+      <c r="U40" s="106">
+        <v>8</v>
+      </c>
+      <c r="V40" s="99">
+        <v>18</v>
+      </c>
+      <c r="W40" s="109">
+        <v>18</v>
+      </c>
+      <c r="X40" s="106">
+        <v>5</v>
+      </c>
+      <c r="Y40" s="99">
+        <v>14</v>
+      </c>
+      <c r="Z40" s="111">
+        <v>14</v>
+      </c>
+      <c r="AC40" s="31">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="36">
+        <v>15</v>
+      </c>
+      <c r="AE40" s="33">
+        <v>6</v>
+      </c>
+      <c r="AF40" s="36">
+        <v>6</v>
+      </c>
+      <c r="AG40" s="36">
+        <v>9</v>
+      </c>
+      <c r="AJ40" s="58"/>
+    </row>
+    <row r="41" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A41" s="71">
+        <v>18</v>
+      </c>
+      <c r="B41" s="78">
+        <v>18</v>
+      </c>
+      <c r="C41" s="69">
+        <v>18</v>
+      </c>
+      <c r="D41" s="73">
+        <v>11</v>
+      </c>
+      <c r="E41" s="77">
+        <v>11</v>
+      </c>
+      <c r="I41" s="110">
+        <v>4</v>
+      </c>
+      <c r="J41" s="106">
+        <v>15</v>
+      </c>
+      <c r="K41" s="100">
+        <v>15</v>
+      </c>
+      <c r="L41" s="103">
+        <v>15</v>
+      </c>
+      <c r="M41" s="110">
+        <v>20</v>
+      </c>
+      <c r="N41" s="102">
+        <v>3</v>
+      </c>
+      <c r="O41" s="105">
+        <v>10</v>
+      </c>
+      <c r="P41" s="108">
+        <v>17</v>
+      </c>
+      <c r="Q41" s="102">
+        <v>17</v>
+      </c>
+      <c r="R41" s="110">
+        <v>19</v>
+      </c>
+      <c r="S41" s="105">
+        <v>2</v>
+      </c>
+      <c r="T41" s="105">
+        <v>16</v>
+      </c>
+      <c r="U41" s="99">
+        <v>11</v>
+      </c>
+      <c r="V41" s="100">
+        <v>11</v>
+      </c>
+      <c r="W41" s="101">
+        <v>11</v>
+      </c>
+      <c r="X41" s="108">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="104">
+        <v>7</v>
+      </c>
+      <c r="Z41" s="102">
+        <v>7</v>
+      </c>
+      <c r="AC41" s="41">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="42">
+        <v>15</v>
+      </c>
+      <c r="AE41" s="29">
+        <v>20</v>
+      </c>
+      <c r="AF41" s="36">
+        <v>6</v>
+      </c>
+      <c r="AG41" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A42" s="70">
+        <v>8</v>
+      </c>
+      <c r="B42" s="76">
+        <v>8</v>
+      </c>
+      <c r="C42" s="69">
+        <v>18</v>
+      </c>
+      <c r="D42" s="70">
+        <v>11</v>
+      </c>
+      <c r="E42" s="82">
+        <v>16</v>
+      </c>
+      <c r="I42" s="13">
+        <v>-1</v>
+      </c>
+      <c r="J42" s="112">
+        <v>15</v>
+      </c>
+      <c r="K42" s="108">
+        <v>1</v>
+      </c>
+      <c r="L42" s="103">
+        <v>1</v>
+      </c>
+      <c r="M42" s="112">
+        <v>3</v>
+      </c>
+      <c r="N42" s="109">
+        <v>3</v>
+      </c>
+      <c r="O42" s="112">
+        <v>10</v>
+      </c>
+      <c r="P42" s="103">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="112">
+        <v>17</v>
+      </c>
+      <c r="R42" s="103">
+        <v>17</v>
+      </c>
+      <c r="S42" s="110">
+        <v>2</v>
+      </c>
+      <c r="T42" s="112">
+        <v>16</v>
+      </c>
+      <c r="U42" s="112">
+        <v>16</v>
+      </c>
+      <c r="V42" s="100">
+        <v>16</v>
+      </c>
+      <c r="W42" s="108">
+        <v>11</v>
+      </c>
+      <c r="X42" s="103">
+        <v>11</v>
+      </c>
+      <c r="Y42" s="112">
+        <v>7</v>
+      </c>
+      <c r="Z42" s="109">
+        <v>7</v>
+      </c>
+      <c r="AC42" s="31">
+        <v>3</v>
+      </c>
+      <c r="AD42" s="40">
+        <v>20</v>
+      </c>
+      <c r="AE42" s="34">
+        <v>20</v>
+      </c>
+      <c r="AF42" s="32">
+        <v>20</v>
+      </c>
+      <c r="AG42" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A43" s="73">
+        <v>12</v>
+      </c>
+      <c r="B43" s="70">
+        <v>8</v>
+      </c>
+      <c r="C43" s="81">
+        <v>8</v>
+      </c>
+      <c r="D43" s="70">
+        <v>11</v>
+      </c>
+      <c r="E43" s="74">
+        <v>16</v>
+      </c>
+      <c r="AC43" s="40">
+        <v>3</v>
+      </c>
+      <c r="AD43" s="32">
+        <v>3</v>
+      </c>
+      <c r="AE43" s="41">
+        <v>20</v>
+      </c>
+      <c r="AF43" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A44" s="70">
+        <v>12</v>
+      </c>
+      <c r="B44" s="76">
+        <v>12</v>
+      </c>
+      <c r="C44" s="84">
+        <v>16</v>
+      </c>
+      <c r="D44" s="80">
+        <v>16</v>
+      </c>
+      <c r="E44" s="83">
+        <v>16</v>
+      </c>
+      <c r="AC44" s="35">
+        <v>10</v>
+      </c>
+      <c r="AD44" s="37">
+        <v>10</v>
+      </c>
+      <c r="AE44" s="37">
+        <v>10</v>
+      </c>
+      <c r="AF44" s="42">
+        <v>10</v>
+      </c>
+      <c r="AG44" s="31">
+        <v>13</v>
+      </c>
+      <c r="AM44" s="58"/>
+    </row>
+    <row r="45" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A45" s="74">
+        <v>12</v>
+      </c>
+      <c r="B45" s="72">
+        <v>19</v>
+      </c>
+      <c r="C45" s="84">
+        <v>2</v>
+      </c>
+      <c r="D45" s="80">
+        <v>2</v>
+      </c>
+      <c r="E45" s="81">
+        <v>2</v>
+      </c>
+      <c r="AC45" s="41">
+        <v>10</v>
+      </c>
+      <c r="AD45" s="34">
+        <v>17</v>
+      </c>
+      <c r="AE45" s="42">
+        <v>17</v>
+      </c>
+      <c r="AF45" s="34">
+        <v>13</v>
+      </c>
+      <c r="AG45" s="36">
+        <v>13</v>
+      </c>
+      <c r="AM45" s="58"/>
+    </row>
+    <row r="46" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A46" s="70">
+        <v>12</v>
+      </c>
+      <c r="B46" s="70">
+        <v>19</v>
+      </c>
+      <c r="C46" s="69">
+        <v>19</v>
+      </c>
+      <c r="D46" s="69">
+        <v>19</v>
+      </c>
+      <c r="E46" s="82">
+        <v>17</v>
+      </c>
+      <c r="AC46" s="35">
+        <v>17</v>
+      </c>
+      <c r="AD46" s="42">
+        <v>17</v>
+      </c>
+      <c r="AE46" s="31">
+        <v>19</v>
+      </c>
+      <c r="AF46" s="40">
+        <v>13</v>
+      </c>
+      <c r="AG46" s="36">
+        <v>13</v>
+      </c>
+      <c r="AM46" s="58"/>
+    </row>
+    <row r="47" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A47" s="73">
+        <v>13</v>
+      </c>
+      <c r="B47" s="72">
+        <v>13</v>
+      </c>
+      <c r="C47" s="70">
+        <v>19</v>
+      </c>
+      <c r="D47" s="73">
+        <v>17</v>
+      </c>
+      <c r="E47" s="77">
+        <v>17</v>
+      </c>
+      <c r="AC47" s="41">
+        <v>17</v>
+      </c>
+      <c r="AD47" s="37">
+        <v>19</v>
+      </c>
+      <c r="AE47" s="37">
+        <v>19</v>
+      </c>
+      <c r="AF47" s="36">
+        <v>19</v>
+      </c>
+      <c r="AG47" s="31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A48" s="70">
+        <v>13</v>
+      </c>
+      <c r="B48" s="69">
+        <v>13</v>
+      </c>
+      <c r="C48" s="73">
+        <v>17</v>
+      </c>
+      <c r="D48" s="83">
+        <v>17</v>
+      </c>
+      <c r="E48" s="82">
+        <v>10</v>
+      </c>
+      <c r="AC48" s="40">
+        <v>2</v>
+      </c>
+      <c r="AD48" s="37">
+        <v>2</v>
+      </c>
+      <c r="AE48" s="32">
+        <v>2</v>
+      </c>
+      <c r="AF48" s="42">
+        <v>19</v>
+      </c>
+      <c r="AG48" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A49" s="70">
+        <v>13</v>
+      </c>
+      <c r="B49" s="73">
+        <v>10</v>
+      </c>
+      <c r="C49" s="80">
+        <v>10</v>
+      </c>
+      <c r="D49" s="80">
+        <v>10</v>
+      </c>
+      <c r="E49" s="77">
+        <v>10</v>
+      </c>
+      <c r="AC49" s="35">
+        <v>16</v>
+      </c>
+      <c r="AD49" s="34">
+        <v>16</v>
+      </c>
+      <c r="AE49" s="29">
+        <v>16</v>
+      </c>
+      <c r="AF49" s="33">
+        <v>12</v>
+      </c>
+      <c r="AG49" s="36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A50" s="82">
+        <v>9</v>
+      </c>
+      <c r="B50" s="11">
+        <v>0</v>
+      </c>
+      <c r="C50" s="70">
+        <v>20</v>
+      </c>
+      <c r="D50" s="70">
+        <v>3</v>
+      </c>
+      <c r="E50" s="76">
+        <v>3</v>
+      </c>
+      <c r="AC50" s="39">
+        <v>16</v>
+      </c>
+      <c r="AD50" s="31">
+        <v>11</v>
+      </c>
+      <c r="AE50" s="33">
+        <v>8</v>
+      </c>
+      <c r="AF50" s="29">
+        <v>8</v>
+      </c>
+      <c r="AG50" s="41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A51" s="74">
+        <v>9</v>
+      </c>
+      <c r="B51" s="71">
+        <v>20</v>
+      </c>
+      <c r="C51" s="69">
+        <v>20</v>
+      </c>
+      <c r="D51" s="80">
+        <v>20</v>
+      </c>
+      <c r="E51" s="75">
+        <v>3</v>
+      </c>
+      <c r="I51" s="14">
+        <v>7</v>
+      </c>
+      <c r="J51" s="15">
+        <v>7</v>
+      </c>
+      <c r="K51" s="21">
+        <v>11</v>
+      </c>
+      <c r="L51" s="15">
+        <v>11</v>
+      </c>
+      <c r="M51" s="21">
+        <v>16</v>
+      </c>
+      <c r="N51" s="21">
+        <v>16</v>
+      </c>
+      <c r="O51" s="15">
+        <v>16</v>
+      </c>
+      <c r="P51" s="27">
+        <v>2</v>
+      </c>
+      <c r="Q51" s="21">
+        <v>17</v>
+      </c>
+      <c r="R51" s="15">
+        <v>17</v>
+      </c>
+      <c r="S51" s="21">
+        <v>10</v>
+      </c>
+      <c r="T51" s="15">
+        <v>10</v>
+      </c>
+      <c r="U51" s="21">
+        <v>3</v>
+      </c>
+      <c r="V51" s="23">
+        <v>3</v>
+      </c>
+      <c r="W51" s="22">
+        <v>1</v>
+      </c>
+      <c r="X51" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="27">
+        <v>15</v>
+      </c>
+      <c r="Z51" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AC51" s="41">
+        <v>16</v>
+      </c>
+      <c r="AD51" s="36">
+        <v>11</v>
+      </c>
+      <c r="AE51" s="31">
+        <v>18</v>
+      </c>
+      <c r="AF51" s="40">
+        <v>8</v>
+      </c>
+      <c r="AG51" s="42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A52" s="74">
+        <v>9</v>
+      </c>
+      <c r="B52" s="69">
+        <v>6</v>
+      </c>
+      <c r="C52" s="75">
+        <v>20</v>
+      </c>
+      <c r="D52" s="82">
+        <v>15</v>
+      </c>
+      <c r="E52" s="82">
+        <v>1</v>
+      </c>
+      <c r="I52" s="18">
+        <v>7</v>
+      </c>
+      <c r="J52" s="19">
+        <v>7</v>
+      </c>
+      <c r="K52" s="27">
+        <v>5</v>
+      </c>
+      <c r="L52" s="25">
+        <v>11</v>
+      </c>
+      <c r="M52" s="26">
+        <v>11</v>
+      </c>
+      <c r="N52" s="23">
+        <v>11</v>
+      </c>
+      <c r="O52" s="19">
+        <v>16</v>
+      </c>
+      <c r="P52" s="24">
+        <v>2</v>
+      </c>
+      <c r="Q52" s="27">
+        <v>19</v>
+      </c>
+      <c r="R52" s="12">
+        <v>17</v>
+      </c>
+      <c r="S52" s="15">
+        <v>17</v>
+      </c>
+      <c r="T52" s="19">
+        <v>10</v>
+      </c>
+      <c r="U52" s="24">
+        <v>3</v>
+      </c>
+      <c r="V52" s="27">
+        <v>20</v>
+      </c>
+      <c r="W52" s="16">
+        <v>15</v>
+      </c>
+      <c r="X52" s="12">
+        <v>15</v>
+      </c>
+      <c r="Y52" s="12">
+        <v>15</v>
+      </c>
+      <c r="Z52" s="27">
+        <v>4</v>
+      </c>
+      <c r="AC52" s="35">
+        <v>11</v>
+      </c>
+      <c r="AD52" s="42">
+        <v>11</v>
+      </c>
+      <c r="AE52" s="37">
+        <v>18</v>
+      </c>
+      <c r="AF52" s="37">
+        <v>18</v>
+      </c>
+      <c r="AG52" s="36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A53" s="74">
+        <v>9</v>
+      </c>
+      <c r="B53" s="69">
+        <v>6</v>
+      </c>
+      <c r="C53" s="72">
+        <v>6</v>
+      </c>
+      <c r="D53" s="70">
+        <v>15</v>
+      </c>
+      <c r="E53" s="75">
+        <v>1</v>
+      </c>
+      <c r="I53" s="14">
+        <v>14</v>
+      </c>
+      <c r="J53" s="23">
+        <v>14</v>
+      </c>
+      <c r="K53" s="19">
+        <v>5</v>
+      </c>
+      <c r="L53" s="12">
+        <v>18</v>
+      </c>
+      <c r="M53" s="23">
+        <v>18</v>
+      </c>
+      <c r="N53" s="12">
+        <v>8</v>
+      </c>
+      <c r="O53" s="20">
+        <v>16</v>
+      </c>
+      <c r="P53" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q53" s="12">
+        <v>19</v>
+      </c>
+      <c r="R53" s="23">
+        <v>19</v>
+      </c>
+      <c r="S53" s="20">
+        <v>17</v>
+      </c>
+      <c r="T53" s="19">
+        <v>10</v>
+      </c>
+      <c r="U53" s="14">
+        <v>20</v>
+      </c>
+      <c r="V53" s="12">
+        <v>20</v>
+      </c>
+      <c r="W53" s="23">
+        <v>20</v>
+      </c>
+      <c r="X53" s="27">
+        <v>6</v>
+      </c>
+      <c r="Y53" s="20">
+        <v>15</v>
+      </c>
+      <c r="Z53" s="24">
+        <v>4</v>
+      </c>
+      <c r="AC53" s="41">
+        <v>11</v>
+      </c>
+      <c r="AD53" s="37">
+        <v>5</v>
+      </c>
+      <c r="AE53" s="37">
+        <v>5</v>
+      </c>
+      <c r="AF53" s="36">
+        <v>5</v>
+      </c>
+      <c r="AG53" s="42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A54" s="75">
+        <v>9</v>
+      </c>
+      <c r="B54" s="75">
+        <v>6</v>
+      </c>
+      <c r="C54" s="80">
+        <v>15</v>
+      </c>
+      <c r="D54" s="78">
+        <v>15</v>
+      </c>
+      <c r="E54" s="77">
+        <v>15</v>
+      </c>
+      <c r="I54" s="24">
+        <v>14</v>
+      </c>
+      <c r="J54" s="12">
+        <v>5</v>
+      </c>
+      <c r="K54" s="17">
+        <v>5</v>
+      </c>
+      <c r="L54" s="19">
+        <v>18</v>
+      </c>
+      <c r="M54" s="12">
+        <v>8</v>
+      </c>
+      <c r="N54" s="17">
+        <v>8</v>
+      </c>
+      <c r="O54" s="27">
+        <v>12</v>
+      </c>
+      <c r="P54" s="12">
+        <v>19</v>
+      </c>
+      <c r="Q54" s="17">
+        <v>19</v>
+      </c>
+      <c r="R54" s="12">
+        <v>13</v>
+      </c>
+      <c r="S54" s="15">
+        <v>13</v>
+      </c>
+      <c r="T54" s="19">
+        <v>10</v>
+      </c>
+      <c r="U54" s="9">
+        <v>0</v>
+      </c>
+      <c r="V54" s="20">
+        <v>20</v>
+      </c>
+      <c r="W54" s="12">
+        <v>6</v>
+      </c>
+      <c r="X54" s="12">
+        <v>6</v>
+      </c>
+      <c r="Y54" s="12">
+        <v>6</v>
+      </c>
+      <c r="Z54" s="24">
+        <v>4</v>
+      </c>
+      <c r="AC54" s="35">
+        <v>7</v>
+      </c>
+      <c r="AD54" s="29">
+        <v>7</v>
+      </c>
+      <c r="AE54" s="31">
+        <v>14</v>
+      </c>
+      <c r="AF54" s="41">
+        <v>5</v>
+      </c>
+      <c r="AG54" s="36">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A55" s="71">
+        <v>4</v>
+      </c>
+      <c r="B55" s="78">
+        <v>4</v>
+      </c>
+      <c r="C55" s="78">
+        <v>4</v>
+      </c>
+      <c r="D55" s="78">
+        <v>4</v>
+      </c>
+      <c r="E55" s="8">
+        <v>-1</v>
+      </c>
+      <c r="I55" s="16">
+        <v>14</v>
+      </c>
+      <c r="J55" s="23">
+        <v>14</v>
+      </c>
+      <c r="K55" s="25">
+        <v>18</v>
+      </c>
+      <c r="L55" s="17">
+        <v>18</v>
+      </c>
+      <c r="M55" s="20">
+        <v>8</v>
+      </c>
+      <c r="N55" s="25">
+        <v>12</v>
+      </c>
+      <c r="O55" s="25">
+        <v>12</v>
+      </c>
+      <c r="P55" s="26">
+        <v>12</v>
+      </c>
+      <c r="Q55" s="23">
+        <v>12</v>
+      </c>
+      <c r="R55" s="25">
+        <v>13</v>
+      </c>
+      <c r="S55" s="25">
+        <v>13</v>
+      </c>
+      <c r="T55" s="23">
+        <v>13</v>
+      </c>
+      <c r="U55" s="26">
+        <v>9</v>
+      </c>
+      <c r="V55" s="26">
+        <v>9</v>
+      </c>
+      <c r="W55" s="26">
+        <v>9</v>
+      </c>
+      <c r="X55" s="26">
+        <v>9</v>
+      </c>
+      <c r="Y55" s="23">
+        <v>9</v>
+      </c>
+      <c r="Z55" s="20">
+        <v>4</v>
+      </c>
+      <c r="AC55" s="40">
+        <v>7</v>
+      </c>
+      <c r="AD55" s="42">
+        <v>7</v>
+      </c>
+      <c r="AE55" s="37">
+        <v>14</v>
+      </c>
+      <c r="AF55" s="38">
+        <v>14</v>
+      </c>
+      <c r="AG55" s="42">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="AJ34:BJ34"/>
     <mergeCell ref="BD4:BG4"/>
     <mergeCell ref="BD5:BG5"/>
     <mergeCell ref="BD6:BG6"/>
     <mergeCell ref="BD7:BG7"/>
+    <mergeCell ref="AV14:BJ14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
